--- a/occupations_zh.xlsx
+++ b/occupations_zh.xlsx
@@ -1812,7 +1812,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ticketseller</t>
+          <t>ticket seller</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
